--- a/Task.xlsx
+++ b/Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive\Máy tính\Workspace\BC_43_BTN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC75B7D7-C899-4D15-845B-2987260152C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C422AB-397A-4E04-8457-8E0BA718999E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0F90A506-77F1-4253-A360-D2CEB88F8493}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>BẢNG PHÂN CÔNG NHIÊM VỤ</t>
   </si>
@@ -45,9 +34,6 @@
   </si>
   <si>
     <t>DEV2: Đặng Công Thắng</t>
-  </si>
-  <si>
-    <t>1 Top-Header đến phần Services</t>
   </si>
   <si>
     <t>2-Stwich mode Dark-Light</t>
@@ -99,6 +85,27 @@
   </si>
   <si>
     <t>29/1</t>
+  </si>
+  <si>
+    <t>1 Top-Header - Services</t>
+  </si>
+  <si>
+    <t>Stats - footer</t>
+  </si>
+  <si>
+    <t>Reponsive phần đã làm</t>
+  </si>
+  <si>
+    <t>Merge với master</t>
+  </si>
+  <si>
+    <t>%FINISH</t>
+  </si>
+  <si>
+    <t>22/1</t>
+  </si>
+  <si>
+    <t>30/1</t>
   </si>
 </sst>
 </file>
@@ -129,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -179,28 +186,72 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -212,63 +263,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -278,7 +276,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -286,71 +284,51 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -359,93 +337,129 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,253 +778,292 @@
   <dimension ref="C1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="1"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
     </row>
     <row r="2" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="1"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8" t="s">
+      <c r="I3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
       <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="9"/>
+      <c r="R3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="3"/>
+      <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="11"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
+      <c r="L4" s="10"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="10"/>
       <c r="U4" s="11"/>
-      <c r="V4" s="14"/>
+      <c r="V4" s="12"/>
     </row>
-    <row r="5" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="21" t="s">
+    <row r="5" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="29">
+        <v>1</v>
+      </c>
+      <c r="J5" s="30"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="26">
+        <v>1</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="43">
+        <v>1</v>
+      </c>
+      <c r="U5" s="33"/>
+      <c r="V5" s="34"/>
+    </row>
+    <row r="6" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="17"/>
+      <c r="D6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="32" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="25" t="s">
         <v>12</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="29">
-        <v>0.95</v>
-      </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="30">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="4"/>
-    </row>
-    <row r="6" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C6" s="16"/>
-      <c r="D6" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>13</v>
       </c>
       <c r="I6" s="29">
         <v>1</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="30">
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="32">
         <v>2</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="4"/>
+      <c r="M6" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="44">
+        <v>1</v>
+      </c>
+      <c r="U6" s="7"/>
+      <c r="V6" s="36"/>
     </row>
-    <row r="7" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C7" s="16"/>
-      <c r="D7" s="23" t="s">
+    <row r="7" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="17"/>
+      <c r="D7" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="29">
+        <v>1</v>
+      </c>
+      <c r="J7" s="30"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="32">
+        <v>3</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="T7" s="44">
+        <v>1</v>
+      </c>
+      <c r="U7" s="7"/>
+      <c r="V7" s="36"/>
+    </row>
+    <row r="8" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="17"/>
+      <c r="D8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="30" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="29">
-        <v>0.95</v>
-      </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="30">
-        <v>3</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="4"/>
-    </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C8" s="16"/>
-      <c r="D8" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>16</v>
+      <c r="H8" s="25" t="s">
+        <v>15</v>
       </c>
       <c r="I8" s="29">
         <v>1</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="31">
+      <c r="J8" s="30"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32">
         <v>4</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="4"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="36"/>
     </row>
-    <row r="9" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C9" s="20"/>
-      <c r="D9" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+    <row r="9" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="10"/>
+      <c r="D9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="29">
         <v>1</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
       <c r="L9" s="26">
         <v>5</v>
       </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="19"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="27">
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="T3:V4"/>
+    <mergeCell ref="L3:Q4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="I1:N2"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="C5:C9"/>
@@ -1021,8 +1074,8 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="C3:F4"/>
-    <mergeCell ref="I1:N2"/>
-    <mergeCell ref="L3:V4"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
